--- a/kehitys24/sivut/tuntiseuranta_esimerkki.xlsx
+++ b/kehitys24/sivut/tuntiseuranta_esimerkki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eerikki.maula\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CB64EA-0858-4130-9432-5606D89B760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808A83B2-C012-467E-A753-6B842505DBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="2715" windowWidth="18090" windowHeight="11940" xr2:uid="{A35A2CE8-B48B-4FB7-BA14-B4605E3E4430}"/>
+    <workbookView xWindow="-19310" yWindow="0" windowWidth="12400" windowHeight="10300" xr2:uid="{A35A2CE8-B48B-4FB7-BA14-B4605E3E4430}"/>
   </bookViews>
   <sheets>
     <sheet name="tunnit" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>Päiväys</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Kuvaus</t>
   </si>
   <si>
-    <t>ma</t>
-  </si>
-  <si>
-    <t>ti</t>
-  </si>
-  <si>
     <t>Lisähuomio jos tarpeen</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
   </si>
   <si>
     <t>pe</t>
-  </si>
-  <si>
-    <t>Sairaana</t>
   </si>
   <si>
     <t>Yhteensä</t>
@@ -97,9 +88,6 @@
     <t>Suunnittelu</t>
   </si>
   <si>
-    <t>Testaus</t>
-  </si>
-  <si>
     <t>Pistelasku</t>
   </si>
 </sst>
@@ -107,6 +95,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,92 +140,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -252,42 +163,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -498,19 +473,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.25</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.25</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -713,19 +688,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.25</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.25</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,15 +2359,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604490E4-0D15-40D2-B06A-AE3394E7ACA5}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -2400,631 +2375,323 @@
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44417</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="8">
+        <v>45589</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="D2" s="22">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
+      <c r="E2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="12">
         <f>A2+1</f>
-        <v>44418</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+        <v>45590</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="23">
+        <v>5</v>
+      </c>
+      <c r="D3" s="24">
         <v>4.25</v>
       </c>
-      <c r="D3" s="12">
-        <v>4.25</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <f t="shared" ref="A4:A6" si="0">A3+1</f>
-        <v>44419</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="15"/>
+      <c r="A4" s="8">
+        <f>A2+7</f>
+        <v>45596</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <f t="shared" si="0"/>
-        <v>44420</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="A5" s="12">
+        <f>A3+7</f>
+        <v>45597</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="23">
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f t="shared" si="0"/>
-        <v>44421</v>
+        <f t="shared" ref="A6:A15" si="0">A4+7</f>
+        <v>45603</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10">
-        <v>5.25</v>
-      </c>
-      <c r="D6" s="13">
-        <v>5.25</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="C6" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f t="shared" ref="A7:A46" si="1">A2+7</f>
-        <v>44424</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="17"/>
+      <c r="A7" s="12">
+        <f t="shared" si="0"/>
+        <v>45604</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <f t="shared" si="1"/>
-        <v>44425</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="15"/>
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>45610</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <f t="shared" si="1"/>
-        <v>44426</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="12">
+        <f t="shared" si="0"/>
+        <v>45611</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="C9" s="23">
+        <v>6.5</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <f t="shared" si="1"/>
-        <v>44427</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>4.25</v>
-      </c>
-      <c r="D10" s="12">
-        <v>4.25</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="15"/>
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
+        <v>45617</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <f t="shared" si="1"/>
-        <v>44428</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="10">
-        <v>4.25</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <f t="shared" si="0"/>
+        <v>45618</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="1"/>
-        <v>44431</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>45624</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f t="shared" si="1"/>
-        <v>44432</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="7"/>
+      <c r="A13" s="12">
+        <f t="shared" si="0"/>
+        <v>45625</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <f t="shared" si="1"/>
-        <v>44433</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>2.25</v>
-      </c>
-      <c r="G14" s="7"/>
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>45631</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <f t="shared" si="1"/>
-        <v>44434</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>4.25</v>
-      </c>
-      <c r="G15" s="7"/>
+      <c r="A15" s="12">
+        <f t="shared" si="0"/>
+        <v>45632</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f t="shared" si="1"/>
-        <v>44435</v>
+        <v>45637</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="10">
-        <v>4.25</v>
-      </c>
-      <c r="D16" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="21">
+        <v>6.5</v>
+      </c>
+      <c r="D16" s="21"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f t="shared" si="1"/>
-        <v>44438</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
+      <c r="A17" s="12">
+        <v>45638</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="23">
+        <v>7.5</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <f t="shared" si="1"/>
-        <v>44439</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="8">
+        <v>45643</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="C18" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <f t="shared" si="1"/>
-        <v>44440</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <f t="shared" si="1"/>
-        <v>44441</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>4.25</v>
-      </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <f t="shared" si="1"/>
-        <v>44442</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="10">
-        <v>3.25</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f t="shared" si="1"/>
-        <v>44445</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <f t="shared" si="1"/>
-        <v>44446</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <f t="shared" si="1"/>
-        <v>44447</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <f t="shared" si="1"/>
-        <v>44448</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <f t="shared" si="1"/>
-        <v>44449</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <f t="shared" si="1"/>
-        <v>44452</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <f t="shared" si="1"/>
-        <v>44453</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <f t="shared" si="1"/>
-        <v>44454</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <f t="shared" si="1"/>
-        <v>44455</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <f t="shared" si="1"/>
-        <v>44456</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <f t="shared" si="1"/>
-        <v>44459</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <f t="shared" si="1"/>
-        <v>44460</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <f t="shared" si="1"/>
-        <v>44461</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <f t="shared" si="1"/>
-        <v>44462</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
-        <f t="shared" si="1"/>
-        <v>44463</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <f t="shared" si="1"/>
-        <v>44466</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <f t="shared" si="1"/>
-        <v>44467</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <f t="shared" si="1"/>
-        <v>44468</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <f t="shared" si="1"/>
-        <v>44469</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
-        <f t="shared" si="1"/>
-        <v>44470</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <f t="shared" si="1"/>
-        <v>44473</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <f t="shared" si="1"/>
-        <v>44474</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <f t="shared" si="1"/>
-        <v>44475</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <f t="shared" si="1"/>
-        <v>44476</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
-        <f t="shared" si="1"/>
-        <v>44477</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="11"/>
+      <c r="A19" s="12">
+        <v>45644</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="23">
+        <v>0</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3046,92 +2713,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>13</v>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6">
         <f>SUMIF(tunnit!F:F,yhteenveto!B3,tunnit!D:D)</f>
-        <v>4.25</v>
-      </c>
-      <c r="D3" s="24">
-        <f>SUM(C3:C3)</f>
-        <v>4.25</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D8" si="0">SUM(C3:C3)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="23">
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6">
         <f>SUMIF(tunnit!F:F,yhteenveto!B4,tunnit!D:D)</f>
-        <v>5.25</v>
-      </c>
-      <c r="D4" s="24">
-        <f>SUM(C4:C4)</f>
-        <v>5.25</v>
+        <v>4.25</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="23">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6">
         <f>SUMIF(tunnit!F:F,yhteenveto!B5,tunnit!D:D)</f>
-        <v>2</v>
-      </c>
-      <c r="D5" s="24">
-        <f>SUM(C5:C5)</f>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
         <f>SUMIF(tunnit!F:F,yhteenveto!B6,tunnit!D:D)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="24">
-        <f>SUM(C6:C6)</f>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
         <f>SUMIF(tunnit!F:F,yhteenveto!B7,tunnit!D:D)</f>
-        <v>4.25</v>
-      </c>
-      <c r="D7" s="24">
-        <f>SUM(C7:C7)</f>
-        <v>4.25</v>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="24">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
         <f>SUM(C3:C7)</f>
-        <v>15.75</v>
-      </c>
-      <c r="D8" s="24">
-        <f>SUM(C8:C8)</f>
-        <v>15.75</v>
+        <v>10.25</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>10.25</v>
       </c>
     </row>
   </sheetData>
@@ -3144,12 +2811,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aee9339b-7095-4861-9341-62921a98955a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="660b6cfa-6e14-4451-aa9c-04f8e527d3c1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3348,20 +3017,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aee9339b-7095-4861-9341-62921a98955a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="660b6cfa-6e14-4451-aa9c-04f8e527d3c1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F54F30-26E5-472C-92E0-CAD89654AA37}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A8DC34F-B8C7-4EBB-B5AA-5C1A72982195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aee9339b-7095-4861-9341-62921a98955a"/>
+    <ds:schemaRef ds:uri="660b6cfa-6e14-4451-aa9c-04f8e527d3c1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3386,12 +3056,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A8DC34F-B8C7-4EBB-B5AA-5C1A72982195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F54F30-26E5-472C-92E0-CAD89654AA37}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aee9339b-7095-4861-9341-62921a98955a"/>
-    <ds:schemaRef ds:uri="660b6cfa-6e14-4451-aa9c-04f8e527d3c1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>